--- a/Jogos_do_Dia/2023-04-24_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-24_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -632,13 +632,13 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="G2" t="n">
-        <v>3.15</v>
+        <v>3.32</v>
       </c>
       <c r="H2" t="n">
-        <v>2.9</v>
+        <v>2.54</v>
       </c>
       <c r="I2" t="n">
         <v>1.03</v>
@@ -653,10 +653,10 @@
         <v>3.75</v>
       </c>
       <c r="M2" t="n">
-        <v>1.8</v>
+        <v>1.71</v>
       </c>
       <c r="N2" t="n">
-        <v>1.9</v>
+        <v>2.07</v>
       </c>
       <c r="O2" t="n">
         <v>1.34</v>
@@ -742,13 +742,13 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>2</v>
+        <v>1.81</v>
       </c>
       <c r="G3" t="n">
-        <v>3.25</v>
+        <v>3.42</v>
       </c>
       <c r="H3" t="n">
-        <v>3.45</v>
+        <v>4.54</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -763,10 +763,10 @@
         <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>1.96</v>
+        <v>1.9</v>
       </c>
       <c r="N3" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
       <c r="O3" t="n">
         <v>0</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.8</v>
+        <v>2.76</v>
       </c>
       <c r="G4" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="H4" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="I4" t="n">
         <v>1.05</v>
@@ -873,10 +873,10 @@
         <v>3.48</v>
       </c>
       <c r="M4" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="N4" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="O4" t="n">
         <v>1.38</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.85</v>
+        <v>2.69</v>
       </c>
       <c r="G6" t="n">
-        <v>3.05</v>
+        <v>2.82</v>
       </c>
       <c r="H6" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="I6" t="n">
         <v>1.08</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.88</v>
+        <v>2.68</v>
       </c>
       <c r="G7" t="n">
-        <v>3.7</v>
+        <v>3.28</v>
       </c>
       <c r="H7" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="I7" t="n">
         <v>1.03</v>
@@ -1203,7 +1203,7 @@
         <v>4.35</v>
       </c>
       <c r="M7" t="n">
-        <v>1.57</v>
+        <v>1.7</v>
       </c>
       <c r="N7" t="n">
         <v>2.15</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="G8" t="n">
-        <v>4.7</v>
+        <v>4.05</v>
       </c>
       <c r="H8" t="n">
-        <v>8.5</v>
+        <v>6.51</v>
       </c>
       <c r="I8" t="n">
         <v>1.04</v>
@@ -1313,10 +1313,10 @@
         <v>3.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.67</v>
+        <v>1.78</v>
       </c>
       <c r="N8" t="n">
-        <v>1.87</v>
+        <v>1.98</v>
       </c>
       <c r="O8" t="n">
         <v>1.35</v>
@@ -1355,28 +1355,28 @@
         <v>3.02</v>
       </c>
       <c r="AA8" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AB8" t="n">
-        <v>0</v>
+        <v>10.25</v>
       </c>
       <c r="AC8" t="n">
-        <v>0</v>
+        <v>4.3</v>
       </c>
       <c r="AD8" t="n">
-        <v>0</v>
+        <v>1.29</v>
       </c>
       <c r="AE8" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AF8" t="n">
         <v>1.95</v>
       </c>
       <c r="AG8" t="n">
-        <v>0</v>
+        <v>2.51</v>
       </c>
       <c r="AH8" t="n">
-        <v>0</v>
+        <v>3.42</v>
       </c>
     </row>
     <row r="9">
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="G9" t="n">
-        <v>3.45</v>
+        <v>3.01</v>
       </c>
       <c r="H9" t="n">
-        <v>4.2</v>
+        <v>2.99</v>
       </c>
       <c r="I9" t="n">
         <v>1.02</v>
@@ -1423,10 +1423,10 @@
         <v>3.08</v>
       </c>
       <c r="M9" t="n">
-        <v>1.76</v>
+        <v>1.84</v>
       </c>
       <c r="N9" t="n">
-        <v>1.77</v>
+        <v>1.68</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
@@ -1465,28 +1465,28 @@
         <v>2.65</v>
       </c>
       <c r="AA9" t="n">
-        <v>0</v>
+        <v>1.43</v>
       </c>
       <c r="AB9" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="AC9" t="n">
-        <v>0</v>
+        <v>3.88</v>
       </c>
       <c r="AD9" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE9" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF9" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AG9" t="n">
-        <v>0</v>
+        <v>2.12</v>
       </c>
       <c r="AH9" t="n">
-        <v>0</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="10">
@@ -1575,13 +1575,13 @@
         <v>3.4</v>
       </c>
       <c r="AA10" t="n">
-        <v>0</v>
+        <v>2.09</v>
       </c>
       <c r="AB10" t="n">
-        <v>0</v>
+        <v>8.9</v>
       </c>
       <c r="AC10" t="n">
-        <v>0</v>
+        <v>1.99</v>
       </c>
       <c r="AD10" t="n">
         <v>1.25</v>
@@ -1753,10 +1753,10 @@
         <v>2.8</v>
       </c>
       <c r="M12" t="n">
-        <v>2.14</v>
+        <v>2.28</v>
       </c>
       <c r="N12" t="n">
-        <v>1.51</v>
+        <v>1.6</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
@@ -1816,7 +1816,7 @@
         <v>4.8</v>
       </c>
       <c r="AH12" t="n">
-        <v>0</v>
+        <v>5.2</v>
       </c>
     </row>
     <row r="13">
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.8</v>
+        <v>2.58</v>
       </c>
       <c r="G14" t="n">
-        <v>3.2</v>
+        <v>3.12</v>
       </c>
       <c r="H14" t="n">
-        <v>2.35</v>
+        <v>2.22</v>
       </c>
       <c r="I14" t="n">
         <v>1.07</v>
@@ -1973,10 +1973,10 @@
         <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="N14" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="O14" t="n">
         <v>1.44</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="G16" t="n">
-        <v>3.3</v>
+        <v>3.42</v>
       </c>
       <c r="H16" t="n">
-        <v>3.6</v>
+        <v>3.43</v>
       </c>
       <c r="I16" t="n">
         <v>1.03</v>
@@ -2193,10 +2193,10 @@
         <v>3.7</v>
       </c>
       <c r="M16" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="N16" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
       <c r="O16" t="n">
         <v>1.36</v>
@@ -2303,10 +2303,10 @@
         <v>3.25</v>
       </c>
       <c r="M17" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="N17" t="n">
-        <v>1.69</v>
+        <v>1.79</v>
       </c>
       <c r="O17" t="n">
         <v>1.4</v>
@@ -2565,28 +2565,28 @@
         <v>3.01</v>
       </c>
       <c r="AA19" t="n">
-        <v>0</v>
+        <v>1.67</v>
       </c>
       <c r="AB19" t="n">
-        <v>0</v>
+        <v>9.1</v>
       </c>
       <c r="AC19" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AD19" t="n">
-        <v>0</v>
+        <v>1.17</v>
       </c>
       <c r="AE19" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AF19" t="n">
-        <v>0</v>
+        <v>1.69</v>
       </c>
       <c r="AG19" t="n">
-        <v>0</v>
+        <v>2.06</v>
       </c>
       <c r="AH19" t="n">
-        <v>0</v>
+        <v>2.67</v>
       </c>
     </row>
     <row r="20">
@@ -2633,10 +2633,10 @@
         <v>3.1</v>
       </c>
       <c r="M20" t="n">
-        <v>2.15</v>
+        <v>1.93</v>
       </c>
       <c r="N20" t="n">
-        <v>1.65</v>
+        <v>1.93</v>
       </c>
       <c r="O20" t="n">
         <v>1.44</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="G22" t="n">
-        <v>5.5</v>
+        <v>4.55</v>
       </c>
       <c r="H22" t="n">
-        <v>11</v>
+        <v>6.27</v>
       </c>
       <c r="I22" t="n">
         <v>1.02</v>
@@ -2853,10 +2853,10 @@
         <v>6.09</v>
       </c>
       <c r="M22" t="n">
-        <v>1.56</v>
+        <v>1.4</v>
       </c>
       <c r="N22" t="n">
-        <v>2.37</v>
+        <v>2.75</v>
       </c>
       <c r="O22" t="n">
         <v>1.22</v>
@@ -3014,7 +3014,7 @@
         <v>1.56</v>
       </c>
       <c r="AD23" t="n">
-        <v>0</v>
+        <v>1.13</v>
       </c>
       <c r="AE23" t="n">
         <v>1.21</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.9</v>
+        <v>2.79</v>
       </c>
       <c r="G24" t="n">
-        <v>3.6</v>
+        <v>3.15</v>
       </c>
       <c r="H24" t="n">
-        <v>2.2</v>
+        <v>2.21</v>
       </c>
       <c r="I24" t="n">
         <v>1.05</v>
@@ -3073,10 +3073,10 @@
         <v>3.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="N24" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="O24" t="n">
         <v>1.4</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.55</v>
+        <v>1.48</v>
       </c>
       <c r="G25" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="H25" t="n">
-        <v>5.5</v>
+        <v>5.21</v>
       </c>
       <c r="I25" t="n">
         <v>1.02</v>
@@ -3183,10 +3183,10 @@
         <v>4.3</v>
       </c>
       <c r="M25" t="n">
-        <v>1.75</v>
+        <v>1.64</v>
       </c>
       <c r="N25" t="n">
-        <v>1.95</v>
+        <v>2.25</v>
       </c>
       <c r="O25" t="n">
         <v>1.33</v>
@@ -3293,10 +3293,10 @@
         <v>2.43</v>
       </c>
       <c r="M26" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="N26" t="n">
-        <v>1.35</v>
+        <v>1.44</v>
       </c>
       <c r="O26" t="n">
         <v>1.53</v>
@@ -3445,16 +3445,16 @@
         <v>2.59</v>
       </c>
       <c r="AA27" t="n">
-        <v>0</v>
+        <v>1.58</v>
       </c>
       <c r="AB27" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AC27" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AD27" t="n">
-        <v>0</v>
+        <v>1.35</v>
       </c>
       <c r="AE27" t="n">
         <v>1.65</v>
@@ -3463,10 +3463,10 @@
         <v>2.01</v>
       </c>
       <c r="AG27" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
       <c r="AH27" t="n">
-        <v>0</v>
+        <v>3.5</v>
       </c>
     </row>
     <row r="28">
@@ -3555,13 +3555,13 @@
         <v>3.08</v>
       </c>
       <c r="AA28" t="n">
-        <v>0</v>
+        <v>1.9</v>
       </c>
       <c r="AB28" t="n">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="AC28" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AD28" t="n">
         <v>1.27</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.15</v>
+        <v>2.16</v>
       </c>
       <c r="G30" t="n">
-        <v>3</v>
+        <v>3.01</v>
       </c>
       <c r="H30" t="n">
-        <v>3.1</v>
+        <v>2.74</v>
       </c>
       <c r="I30" t="n">
         <v>1.08</v>
@@ -3733,10 +3733,10 @@
         <v>2.75</v>
       </c>
       <c r="M30" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="N30" t="n">
-        <v>1.58</v>
+        <v>1.64</v>
       </c>
       <c r="O30" t="n">
         <v>1.49</v>
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="G32" t="n">
-        <v>3</v>
+        <v>2.85</v>
       </c>
       <c r="H32" t="n">
-        <v>4.33</v>
+        <v>4.25</v>
       </c>
       <c r="I32" t="n">
         <v>1.12</v>
@@ -3947,16 +3947,16 @@
         <v>5.3</v>
       </c>
       <c r="K32" t="n">
-        <v>1.54</v>
+        <v>1.6</v>
       </c>
       <c r="L32" t="n">
-        <v>2.33</v>
+        <v>2.25</v>
       </c>
       <c r="M32" t="n">
-        <v>2.6</v>
+        <v>2.54</v>
       </c>
       <c r="N32" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="O32" t="n">
         <v>1.58</v>
@@ -4016,7 +4016,7 @@
         <v>2.93</v>
       </c>
       <c r="AH32" t="n">
-        <v>0</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="33">
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.75</v>
+        <v>1.68</v>
       </c>
       <c r="G33" t="n">
-        <v>3.35</v>
+        <v>2.98</v>
       </c>
       <c r="H33" t="n">
-        <v>4.9</v>
+        <v>3.86</v>
       </c>
       <c r="I33" t="n">
         <v>1.06</v>
@@ -4063,10 +4063,10 @@
         <v>3.1</v>
       </c>
       <c r="M33" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="N33" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="O33" t="n">
         <v>1.4</v>
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.25</v>
+        <v>2.04</v>
       </c>
       <c r="G34" t="n">
-        <v>3.2</v>
+        <v>3.57</v>
       </c>
       <c r="H34" t="n">
-        <v>3.25</v>
+        <v>3.38</v>
       </c>
       <c r="I34" t="n">
         <v>1.07</v>
@@ -4173,10 +4173,10 @@
         <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>2.05</v>
+        <v>2.04</v>
       </c>
       <c r="N34" t="n">
-        <v>1.7</v>
+        <v>1.78</v>
       </c>
       <c r="O34" t="n">
         <v>1.44</v>
@@ -4283,10 +4283,10 @@
         <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="N35" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="O35" t="n">
         <v>1.44</v>
@@ -4393,10 +4393,10 @@
         <v>2.2</v>
       </c>
       <c r="M36" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="N36" t="n">
-        <v>1.52</v>
+        <v>1.44</v>
       </c>
       <c r="O36" t="n">
         <v>1.53</v>
@@ -4482,13 +4482,13 @@
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="G37" t="n">
-        <v>3.25</v>
+        <v>3.26</v>
       </c>
       <c r="H37" t="n">
-        <v>3.4</v>
+        <v>3.21</v>
       </c>
       <c r="I37" t="n">
         <v>1.05</v>
@@ -4503,10 +4503,10 @@
         <v>3.4</v>
       </c>
       <c r="M37" t="n">
-        <v>2</v>
+        <v>2.02</v>
       </c>
       <c r="N37" t="n">
-        <v>1.73</v>
+        <v>1.79</v>
       </c>
       <c r="O37" t="n">
         <v>1.4</v>
@@ -4592,13 +4592,13 @@
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.81</v>
+        <v>1.76</v>
       </c>
       <c r="G38" t="n">
-        <v>3.34</v>
+        <v>3.38</v>
       </c>
       <c r="H38" t="n">
-        <v>4.4</v>
+        <v>4.72</v>
       </c>
       <c r="I38" t="n">
         <v>1.08</v>
@@ -4613,10 +4613,10 @@
         <v>2.6</v>
       </c>
       <c r="M38" t="n">
-        <v>2.3</v>
+        <v>2.09</v>
       </c>
       <c r="N38" t="n">
-        <v>1.57</v>
+        <v>1.61</v>
       </c>
       <c r="O38" t="n">
         <v>1.44</v>
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>5</v>
+        <v>3.82</v>
       </c>
       <c r="G39" t="n">
-        <v>3.7</v>
+        <v>3.3</v>
       </c>
       <c r="H39" t="n">
-        <v>1.7</v>
+        <v>1.87</v>
       </c>
       <c r="I39" t="n">
         <v>1.01</v>
@@ -4723,10 +4723,10 @@
         <v>4.4</v>
       </c>
       <c r="M39" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="N39" t="n">
-        <v>1.8</v>
+        <v>1.82</v>
       </c>
       <c r="O39" t="n">
         <v>1.29</v>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.08</v>
+        <v>3.19</v>
       </c>
       <c r="G40" t="n">
-        <v>3.04</v>
+        <v>2.92</v>
       </c>
       <c r="H40" t="n">
-        <v>2.35</v>
+        <v>2.39</v>
       </c>
       <c r="I40" t="n">
         <v>1.09</v>
@@ -4833,10 +4833,10 @@
         <v>2.5</v>
       </c>
       <c r="M40" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="N40" t="n">
-        <v>1.52</v>
+        <v>1.45</v>
       </c>
       <c r="O40" t="n">
         <v>1.56</v>
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="G41" t="n">
-        <v>3.58</v>
+        <v>3.59</v>
       </c>
       <c r="H41" t="n">
-        <v>5.35</v>
+        <v>5.25</v>
       </c>
       <c r="I41" t="n">
         <v>1.05</v>
@@ -4943,10 +4943,10 @@
         <v>2.65</v>
       </c>
       <c r="M41" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="N41" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="O41" t="n">
         <v>1.42</v>
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="G43" t="n">
-        <v>3.6</v>
+        <v>3.57</v>
       </c>
       <c r="H43" t="n">
-        <v>1.6</v>
+        <v>1.71</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
+        <v>2</v>
+      </c>
+      <c r="N43" t="n">
         <v>1.8</v>
-      </c>
-      <c r="N43" t="n">
-        <v>1.99</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.22</v>
+        <v>2.46</v>
       </c>
       <c r="G44" t="n">
-        <v>3.05</v>
+        <v>2.92</v>
       </c>
       <c r="H44" t="n">
-        <v>2.92</v>
+        <v>2.43</v>
       </c>
       <c r="I44" t="n">
         <v>1.09</v>
@@ -5267,16 +5267,16 @@
         <v>7.65</v>
       </c>
       <c r="K44" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="L44" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="M44" t="n">
-        <v>2.3</v>
+        <v>2.22</v>
       </c>
       <c r="N44" t="n">
-        <v>1.57</v>
+        <v>1.52</v>
       </c>
       <c r="O44" t="n">
         <v>1.47</v>
@@ -5472,13 +5472,13 @@
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.57</v>
+        <v>1.66</v>
       </c>
       <c r="G46" t="n">
-        <v>3.5</v>
+        <v>3.35</v>
       </c>
       <c r="H46" t="n">
-        <v>5</v>
+        <v>3.85</v>
       </c>
       <c r="I46" t="n">
         <v>1.06</v>
@@ -5493,10 +5493,10 @@
         <v>2.87</v>
       </c>
       <c r="M46" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="N46" t="n">
-        <v>1.77</v>
+        <v>1.64</v>
       </c>
       <c r="O46" t="n">
         <v>1.44</v>
@@ -5582,13 +5582,13 @@
         </is>
       </c>
       <c r="F47" t="n">
-        <v>1.94</v>
+        <v>2.41</v>
       </c>
       <c r="G47" t="n">
-        <v>3.4</v>
+        <v>3.08</v>
       </c>
       <c r="H47" t="n">
-        <v>3.7</v>
+        <v>2.98</v>
       </c>
       <c r="I47" t="n">
         <v>1.01</v>
@@ -5603,10 +5603,10 @@
         <v>3.05</v>
       </c>
       <c r="M47" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="N47" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="O47" t="n">
         <v>1.41</v>
@@ -5692,13 +5692,13 @@
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.75</v>
+        <v>3.78</v>
       </c>
       <c r="G48" t="n">
-        <v>3.3</v>
+        <v>2.98</v>
       </c>
       <c r="H48" t="n">
-        <v>1.82</v>
+        <v>1.7</v>
       </c>
       <c r="I48" t="n">
         <v>1.08</v>
@@ -5716,7 +5716,7 @@
         <v>2.05</v>
       </c>
       <c r="N48" t="n">
-        <v>1.61</v>
+        <v>1.8</v>
       </c>
       <c r="O48" t="n">
         <v>1.44</v>
@@ -5802,13 +5802,13 @@
         </is>
       </c>
       <c r="F49" t="n">
-        <v>2.4</v>
+        <v>2.33</v>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>3.08</v>
       </c>
       <c r="H49" t="n">
-        <v>3</v>
+        <v>2.89</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
@@ -5826,7 +5826,7 @@
         <v>2.2</v>
       </c>
       <c r="N49" t="n">
-        <v>1.53</v>
+        <v>1.68</v>
       </c>
       <c r="O49" t="n">
         <v>0</v>
@@ -5865,13 +5865,13 @@
         <v>0</v>
       </c>
       <c r="AA49" t="n">
-        <v>1.74</v>
+        <v>1.7</v>
       </c>
       <c r="AB49" t="n">
-        <v>9.1</v>
+        <v>7.9</v>
       </c>
       <c r="AC49" t="n">
-        <v>2.5</v>
+        <v>2.66</v>
       </c>
       <c r="AD49" t="n">
         <v>0</v>
@@ -5912,13 +5912,13 @@
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.75</v>
+        <v>1.84</v>
       </c>
       <c r="G50" t="n">
-        <v>3.25</v>
+        <v>2.85</v>
       </c>
       <c r="H50" t="n">
-        <v>4.33</v>
+        <v>3.78</v>
       </c>
       <c r="I50" t="n">
         <v>1.1</v>
@@ -5933,10 +5933,10 @@
         <v>2.33</v>
       </c>
       <c r="M50" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="N50" t="n">
-        <v>1.44</v>
+        <v>1.39</v>
       </c>
       <c r="O50" t="n">
         <v>1.5</v>
@@ -6022,13 +6022,13 @@
         </is>
       </c>
       <c r="F51" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="G51" t="n">
-        <v>3.8</v>
+        <v>3.4</v>
       </c>
       <c r="H51" t="n">
-        <v>5.4</v>
+        <v>4.77</v>
       </c>
       <c r="I51" t="n">
         <v>1.03</v>
@@ -6043,10 +6043,10 @@
         <v>3.4</v>
       </c>
       <c r="M51" t="n">
-        <v>1.78</v>
+        <v>1.86</v>
       </c>
       <c r="N51" t="n">
-        <v>1.92</v>
+        <v>1.69</v>
       </c>
       <c r="O51" t="n">
         <v>1.4</v>

--- a/Jogos_do_Dia/2023-04-24_FutPythonTrader_Jogos_do_Dia.xlsx
+++ b/Jogos_do_Dia/2023-04-24_FutPythonTrader_Jogos_do_Dia.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AH51"/>
+  <dimension ref="A1:AH50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -680,10 +680,10 @@
         <v>1.62</v>
       </c>
       <c r="V2" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="W2" t="n">
-        <v>1.8</v>
+        <v>1.5</v>
       </c>
       <c r="X2" t="n">
         <v>1.54</v>
@@ -704,19 +704,19 @@
         <v>2.35</v>
       </c>
       <c r="AD2" t="n">
-        <v>0</v>
+        <v>1.2</v>
       </c>
       <c r="AE2" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AF2" t="n">
-        <v>0</v>
+        <v>1.63</v>
       </c>
       <c r="AG2" t="n">
         <v>1.95</v>
       </c>
       <c r="AH2" t="n">
-        <v>0</v>
+        <v>2.6</v>
       </c>
     </row>
     <row r="3">
@@ -790,10 +790,10 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0.33</v>
+        <v>0.71</v>
       </c>
       <c r="W3" t="n">
-        <v>0.67</v>
+        <v>0.57</v>
       </c>
       <c r="X3" t="n">
         <v>1.36</v>
@@ -852,13 +852,13 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>2.76</v>
+        <v>2.73</v>
       </c>
       <c r="G4" t="n">
-        <v>3</v>
+        <v>3.04</v>
       </c>
       <c r="H4" t="n">
-        <v>2.25</v>
+        <v>2.64</v>
       </c>
       <c r="I4" t="n">
         <v>1.05</v>
@@ -873,10 +873,10 @@
         <v>3.48</v>
       </c>
       <c r="M4" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="N4" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="O4" t="n">
         <v>1.38</v>
@@ -900,10 +900,10 @@
         <v>1.4</v>
       </c>
       <c r="V4" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="W4" t="n">
-        <v>2.6</v>
+        <v>2.17</v>
       </c>
       <c r="X4" t="n">
         <v>1.75</v>
@@ -1010,10 +1010,10 @@
         <v>2.15</v>
       </c>
       <c r="V5" t="n">
-        <v>2.06</v>
+        <v>1.94</v>
       </c>
       <c r="W5" t="n">
-        <v>0.5</v>
+        <v>0.65</v>
       </c>
       <c r="X5" t="n">
         <v>1.96</v>
@@ -1072,13 +1072,13 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>2.69</v>
+        <v>2.8</v>
       </c>
       <c r="G6" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="H6" t="n">
-        <v>2.3</v>
+        <v>2.45</v>
       </c>
       <c r="I6" t="n">
         <v>1.08</v>
@@ -1087,16 +1087,16 @@
         <v>7.5</v>
       </c>
       <c r="K6" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="L6" t="n">
-        <v>2.4</v>
+        <v>2.55</v>
       </c>
       <c r="M6" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="N6" t="n">
-        <v>1.6</v>
+        <v>1.5</v>
       </c>
       <c r="O6" t="n">
         <v>1.5</v>
@@ -1120,10 +1120,10 @@
         <v>1.42</v>
       </c>
       <c r="V6" t="n">
-        <v>2.43</v>
+        <v>2.5</v>
       </c>
       <c r="W6" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="X6" t="n">
         <v>1.67</v>
@@ -1182,13 +1182,13 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>2.68</v>
+        <v>2.9</v>
       </c>
       <c r="G7" t="n">
-        <v>3.28</v>
+        <v>3.7</v>
       </c>
       <c r="H7" t="n">
-        <v>2.37</v>
+        <v>2.34</v>
       </c>
       <c r="I7" t="n">
         <v>1.03</v>
@@ -1203,10 +1203,10 @@
         <v>4.35</v>
       </c>
       <c r="M7" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="N7" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="O7" t="n">
         <v>1.33</v>
@@ -1230,10 +1230,10 @@
         <v>1.42</v>
       </c>
       <c r="V7" t="n">
-        <v>1.42</v>
+        <v>1.31</v>
       </c>
       <c r="W7" t="n">
-        <v>1.42</v>
+        <v>1.54</v>
       </c>
       <c r="X7" t="n">
         <v>1.51</v>
@@ -1292,13 +1292,13 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="G8" t="n">
-        <v>4.05</v>
+        <v>4.4</v>
       </c>
       <c r="H8" t="n">
-        <v>6.51</v>
+        <v>6.5</v>
       </c>
       <c r="I8" t="n">
         <v>1.04</v>
@@ -1313,10 +1313,10 @@
         <v>3.6</v>
       </c>
       <c r="M8" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="N8" t="n">
-        <v>1.98</v>
+        <v>1.85</v>
       </c>
       <c r="O8" t="n">
         <v>1.35</v>
@@ -1340,10 +1340,10 @@
         <v>3.3</v>
       </c>
       <c r="V8" t="n">
-        <v>2.44</v>
+        <v>2.5</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8</v>
+        <v>0.73</v>
       </c>
       <c r="X8" t="n">
         <v>1.85</v>
@@ -1402,13 +1402,13 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>1.91</v>
+        <v>1.68</v>
       </c>
       <c r="G9" t="n">
-        <v>3.01</v>
+        <v>3.21</v>
       </c>
       <c r="H9" t="n">
-        <v>2.99</v>
+        <v>4.1</v>
       </c>
       <c r="I9" t="n">
         <v>1.02</v>
@@ -1423,10 +1423,10 @@
         <v>3.08</v>
       </c>
       <c r="M9" t="n">
-        <v>1.84</v>
+        <v>1.95</v>
       </c>
       <c r="N9" t="n">
-        <v>1.68</v>
+        <v>1.65</v>
       </c>
       <c r="O9" t="n">
         <v>1.4</v>
@@ -1450,7 +1450,7 @@
         <v>1.75</v>
       </c>
       <c r="V9" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="W9" t="n">
         <v>1</v>
@@ -1512,13 +1512,13 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>2.84</v>
+        <v>2.7</v>
       </c>
       <c r="G10" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="H10" t="n">
-        <v>2.13</v>
+        <v>2.41</v>
       </c>
       <c r="I10" t="n">
         <v>1.05</v>
@@ -1533,10 +1533,10 @@
         <v>3.4</v>
       </c>
       <c r="M10" t="n">
-        <v>1.74</v>
+        <v>1.78</v>
       </c>
       <c r="N10" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="O10" t="n">
         <v>1.37</v>
@@ -1560,10 +1560,10 @@
         <v>1.33</v>
       </c>
       <c r="V10" t="n">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="W10" t="n">
-        <v>1.21</v>
+        <v>1.33</v>
       </c>
       <c r="X10" t="n">
         <v>1.82</v>
@@ -1732,13 +1732,13 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>1.69</v>
+        <v>1.56</v>
       </c>
       <c r="G12" t="n">
-        <v>2.92</v>
+        <v>3.6</v>
       </c>
       <c r="H12" t="n">
-        <v>3.91</v>
+        <v>4.95</v>
       </c>
       <c r="I12" t="n">
         <v>1.08</v>
@@ -1753,10 +1753,10 @@
         <v>2.8</v>
       </c>
       <c r="M12" t="n">
-        <v>2.28</v>
+        <v>2.24</v>
       </c>
       <c r="N12" t="n">
-        <v>1.6</v>
+        <v>1.58</v>
       </c>
       <c r="O12" t="n">
         <v>1.5</v>
@@ -1780,10 +1780,10 @@
         <v>2.3</v>
       </c>
       <c r="V12" t="n">
-        <v>1.59</v>
+        <v>1.67</v>
       </c>
       <c r="W12" t="n">
-        <v>0.59</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="X12" t="n">
         <v>1.84</v>
@@ -1842,13 +1842,13 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="G13" t="n">
-        <v>3.12</v>
+        <v>3.08</v>
       </c>
       <c r="H13" t="n">
-        <v>3.6</v>
+        <v>3.08</v>
       </c>
       <c r="I13" t="n">
         <v>1.06</v>
@@ -1863,10 +1863,10 @@
         <v>2.9</v>
       </c>
       <c r="M13" t="n">
-        <v>1.83</v>
+        <v>2.13</v>
       </c>
       <c r="N13" t="n">
-        <v>1.71</v>
+        <v>1.67</v>
       </c>
       <c r="O13" t="n">
         <v>1.48</v>
@@ -1890,10 +1890,10 @@
         <v>1.73</v>
       </c>
       <c r="V13" t="n">
-        <v>0.6899999999999999</v>
+        <v>0.86</v>
       </c>
       <c r="W13" t="n">
-        <v>0.85</v>
+        <v>0.79</v>
       </c>
       <c r="X13" t="n">
         <v>1.44</v>
@@ -1905,28 +1905,28 @@
         <v>2.71</v>
       </c>
       <c r="AA13" t="n">
-        <v>0</v>
+        <v>3.11</v>
       </c>
       <c r="AB13" t="n">
-        <v>0</v>
+        <v>7.6</v>
       </c>
       <c r="AC13" t="n">
-        <v>0</v>
+        <v>1.57</v>
       </c>
       <c r="AD13" t="n">
-        <v>0</v>
+        <v>1.38</v>
       </c>
       <c r="AE13" t="n">
-        <v>0</v>
+        <v>1.65</v>
       </c>
       <c r="AF13" t="n">
-        <v>0</v>
+        <v>2.1</v>
       </c>
       <c r="AG13" t="n">
-        <v>0</v>
+        <v>2.7</v>
       </c>
       <c r="AH13" t="n">
-        <v>0</v>
+        <v>3.8</v>
       </c>
     </row>
     <row r="14">
@@ -1952,13 +1952,13 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>2.58</v>
+        <v>1.63</v>
       </c>
       <c r="G14" t="n">
-        <v>3.12</v>
+        <v>3.3</v>
       </c>
       <c r="H14" t="n">
-        <v>2.22</v>
+        <v>5.2</v>
       </c>
       <c r="I14" t="n">
         <v>1.07</v>
@@ -1973,10 +1973,10 @@
         <v>3</v>
       </c>
       <c r="M14" t="n">
-        <v>1.77</v>
+        <v>1.94</v>
       </c>
       <c r="N14" t="n">
-        <v>1.77</v>
+        <v>1.94</v>
       </c>
       <c r="O14" t="n">
         <v>1.44</v>
@@ -2003,7 +2003,7 @@
         <v>1</v>
       </c>
       <c r="W14" t="n">
-        <v>1.5</v>
+        <v>1.33</v>
       </c>
       <c r="X14" t="n">
         <v>1.1</v>
@@ -2172,13 +2172,13 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="G16" t="n">
-        <v>3.42</v>
+        <v>3.65</v>
       </c>
       <c r="H16" t="n">
-        <v>3.43</v>
+        <v>3.3</v>
       </c>
       <c r="I16" t="n">
         <v>1.03</v>
@@ -2193,10 +2193,10 @@
         <v>3.7</v>
       </c>
       <c r="M16" t="n">
-        <v>1.72</v>
+        <v>1.84</v>
       </c>
       <c r="N16" t="n">
-        <v>1.89</v>
+        <v>2.04</v>
       </c>
       <c r="O16" t="n">
         <v>1.36</v>
@@ -2220,10 +2220,10 @@
         <v>1.75</v>
       </c>
       <c r="V16" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="W16" t="n">
-        <v>0.67</v>
+        <v>0.6899999999999999</v>
       </c>
       <c r="X16" t="n">
         <v>1.35</v>
@@ -2282,13 +2282,13 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>3.02</v>
+        <v>3.3</v>
       </c>
       <c r="G17" t="n">
-        <v>3.09</v>
+        <v>3.3</v>
       </c>
       <c r="H17" t="n">
-        <v>2.11</v>
+        <v>2.1</v>
       </c>
       <c r="I17" t="n">
         <v>1.06</v>
@@ -2303,10 +2303,10 @@
         <v>3.25</v>
       </c>
       <c r="M17" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="N17" t="n">
-        <v>1.79</v>
+        <v>1.74</v>
       </c>
       <c r="O17" t="n">
         <v>1.4</v>
@@ -2333,7 +2333,7 @@
         <v>1.07</v>
       </c>
       <c r="W17" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="X17" t="n">
         <v>1.64</v>
@@ -2392,13 +2392,13 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="G18" t="n">
-        <v>3.09</v>
+        <v>3.15</v>
       </c>
       <c r="H18" t="n">
-        <v>3.04</v>
+        <v>3.45</v>
       </c>
       <c r="I18" t="n">
         <v>1.06</v>
@@ -2413,10 +2413,10 @@
         <v>3.25</v>
       </c>
       <c r="M18" t="n">
-        <v>1.82</v>
+        <v>1.93</v>
       </c>
       <c r="N18" t="n">
-        <v>1.72</v>
+        <v>1.85</v>
       </c>
       <c r="O18" t="n">
         <v>1.48</v>
@@ -2440,10 +2440,10 @@
         <v>1.7</v>
       </c>
       <c r="V18" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="W18" t="n">
-        <v>0.54</v>
+        <v>0.57</v>
       </c>
       <c r="X18" t="n">
         <v>1.53</v>
@@ -2502,13 +2502,13 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>1.94</v>
+        <v>2.13</v>
       </c>
       <c r="G19" t="n">
-        <v>3.08</v>
+        <v>3.25</v>
       </c>
       <c r="H19" t="n">
-        <v>3.13</v>
+        <v>2.92</v>
       </c>
       <c r="I19" t="n">
         <v>1.04</v>
@@ -2523,10 +2523,10 @@
         <v>4</v>
       </c>
       <c r="M19" t="n">
-        <v>1.69</v>
+        <v>1.75</v>
       </c>
       <c r="N19" t="n">
-        <v>1.85</v>
+        <v>2.07</v>
       </c>
       <c r="O19" t="n">
         <v>1.33</v>
@@ -2550,10 +2550,10 @@
         <v>1.62</v>
       </c>
       <c r="V19" t="n">
-        <v>1.43</v>
+        <v>1.4</v>
       </c>
       <c r="W19" t="n">
-        <v>0.71</v>
+        <v>0.73</v>
       </c>
       <c r="X19" t="n">
         <v>1.71</v>
@@ -2612,13 +2612,13 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>2.56</v>
+        <v>3.1</v>
       </c>
       <c r="G20" t="n">
-        <v>2.95</v>
+        <v>3.15</v>
       </c>
       <c r="H20" t="n">
-        <v>2.32</v>
+        <v>2.09</v>
       </c>
       <c r="I20" t="n">
         <v>1.06</v>
@@ -2633,10 +2633,10 @@
         <v>3.1</v>
       </c>
       <c r="M20" t="n">
-        <v>1.93</v>
+        <v>2.03</v>
       </c>
       <c r="N20" t="n">
-        <v>1.93</v>
+        <v>1.78</v>
       </c>
       <c r="O20" t="n">
         <v>1.44</v>
@@ -2660,10 +2660,10 @@
         <v>1.33</v>
       </c>
       <c r="V20" t="n">
-        <v>0.86</v>
+        <v>0.8</v>
       </c>
       <c r="W20" t="n">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="X20" t="n">
         <v>1.38</v>
@@ -2722,13 +2722,13 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>2.26</v>
+        <v>2.18</v>
       </c>
       <c r="G21" t="n">
-        <v>3.06</v>
+        <v>3.4</v>
       </c>
       <c r="H21" t="n">
-        <v>2.76</v>
+        <v>3</v>
       </c>
       <c r="I21" t="n">
         <v>1.06</v>
@@ -2743,10 +2743,10 @@
         <v>3.25</v>
       </c>
       <c r="M21" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="N21" t="n">
-        <v>1.81</v>
+        <v>1.95</v>
       </c>
       <c r="O21" t="n">
         <v>1.4</v>
@@ -2770,10 +2770,10 @@
         <v>1.7</v>
       </c>
       <c r="V21" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="W21" t="n">
-        <v>1.07</v>
+        <v>1.19</v>
       </c>
       <c r="X21" t="n">
         <v>1.82</v>
@@ -2832,13 +2832,13 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>1.33</v>
+        <v>1.22</v>
       </c>
       <c r="G22" t="n">
-        <v>4.55</v>
+        <v>6.2</v>
       </c>
       <c r="H22" t="n">
-        <v>6.27</v>
+        <v>10</v>
       </c>
       <c r="I22" t="n">
         <v>1.02</v>
@@ -2853,10 +2853,10 @@
         <v>6.09</v>
       </c>
       <c r="M22" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="N22" t="n">
-        <v>2.75</v>
+        <v>2.99</v>
       </c>
       <c r="O22" t="n">
         <v>1.22</v>
@@ -2880,7 +2880,7 @@
         <v>3.7</v>
       </c>
       <c r="V22" t="n">
-        <v>2.21</v>
+        <v>2.13</v>
       </c>
       <c r="W22" t="n">
         <v>0.93</v>
@@ -2942,13 +2942,13 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>2.79</v>
+        <v>3.5</v>
       </c>
       <c r="G23" t="n">
-        <v>3.06</v>
+        <v>3.35</v>
       </c>
       <c r="H23" t="n">
-        <v>2.25</v>
+        <v>2.01</v>
       </c>
       <c r="I23" t="n">
         <v>1.05</v>
@@ -2963,10 +2963,10 @@
         <v>3</v>
       </c>
       <c r="M23" t="n">
-        <v>1.81</v>
+        <v>1.93</v>
       </c>
       <c r="N23" t="n">
-        <v>1.8</v>
+        <v>1.95</v>
       </c>
       <c r="O23" t="n">
         <v>1.45</v>
@@ -2990,7 +2990,7 @@
         <v>1.28</v>
       </c>
       <c r="V23" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W23" t="n">
         <v>0</v>
@@ -3052,13 +3052,13 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>2.79</v>
+        <v>3.1</v>
       </c>
       <c r="G24" t="n">
-        <v>3.15</v>
+        <v>3.45</v>
       </c>
       <c r="H24" t="n">
-        <v>2.21</v>
+        <v>2.15</v>
       </c>
       <c r="I24" t="n">
         <v>1.05</v>
@@ -3073,10 +3073,10 @@
         <v>3.5</v>
       </c>
       <c r="M24" t="n">
-        <v>1.73</v>
+        <v>1.81</v>
       </c>
       <c r="N24" t="n">
-        <v>1.88</v>
+        <v>2</v>
       </c>
       <c r="O24" t="n">
         <v>1.4</v>
@@ -3100,10 +3100,10 @@
         <v>1.33</v>
       </c>
       <c r="V24" t="n">
-        <v>0</v>
+        <v>1.5</v>
       </c>
       <c r="W24" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X24" t="n">
         <v>1.24</v>
@@ -3162,13 +3162,13 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>1.48</v>
+        <v>1.61</v>
       </c>
       <c r="G25" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="H25" t="n">
-        <v>5.21</v>
+        <v>4.95</v>
       </c>
       <c r="I25" t="n">
         <v>1.02</v>
@@ -3183,10 +3183,10 @@
         <v>4.3</v>
       </c>
       <c r="M25" t="n">
-        <v>1.64</v>
+        <v>1.8</v>
       </c>
       <c r="N25" t="n">
-        <v>2.25</v>
+        <v>2.01</v>
       </c>
       <c r="O25" t="n">
         <v>1.33</v>
@@ -3213,7 +3213,7 @@
         <v>3</v>
       </c>
       <c r="W25" t="n">
-        <v>3</v>
+        <v>1.5</v>
       </c>
       <c r="X25" t="n">
         <v>1.99</v>
@@ -3272,13 +3272,13 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>2.2</v>
+        <v>1.8</v>
       </c>
       <c r="G26" t="n">
-        <v>2.72</v>
+        <v>3.1</v>
       </c>
       <c r="H26" t="n">
-        <v>2.72</v>
+        <v>4.25</v>
       </c>
       <c r="I26" t="n">
         <v>1.11</v>
@@ -3290,13 +3290,13 @@
         <v>1.54</v>
       </c>
       <c r="L26" t="n">
-        <v>2.43</v>
+        <v>2.33</v>
       </c>
       <c r="M26" t="n">
-        <v>2.6</v>
+        <v>2.41</v>
       </c>
       <c r="N26" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="O26" t="n">
         <v>1.53</v>
@@ -3320,10 +3320,10 @@
         <v>1.8</v>
       </c>
       <c r="V26" t="n">
-        <v>1.24</v>
+        <v>1.22</v>
       </c>
       <c r="W26" t="n">
-        <v>1.13</v>
+        <v>1.12</v>
       </c>
       <c r="X26" t="n">
         <v>1.26</v>
@@ -3430,10 +3430,10 @@
         <v>1.82</v>
       </c>
       <c r="V27" t="n">
-        <v>1.44</v>
+        <v>1.35</v>
       </c>
       <c r="W27" t="n">
-        <v>0.88</v>
+        <v>1</v>
       </c>
       <c r="X27" t="n">
         <v>1.42</v>
@@ -3540,10 +3540,10 @@
         <v>1.53</v>
       </c>
       <c r="V28" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="W28" t="n">
-        <v>1.06</v>
+        <v>1</v>
       </c>
       <c r="X28" t="n">
         <v>1.44</v>
@@ -3712,13 +3712,13 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>2.16</v>
+        <v>2.2</v>
       </c>
       <c r="G30" t="n">
-        <v>3.01</v>
+        <v>3</v>
       </c>
       <c r="H30" t="n">
-        <v>2.74</v>
+        <v>3.25</v>
       </c>
       <c r="I30" t="n">
         <v>1.08</v>
@@ -3733,10 +3733,10 @@
         <v>2.75</v>
       </c>
       <c r="M30" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="N30" t="n">
-        <v>1.64</v>
+        <v>1.53</v>
       </c>
       <c r="O30" t="n">
         <v>1.49</v>
@@ -3760,10 +3760,10 @@
         <v>1.62</v>
       </c>
       <c r="V30" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="W30" t="n">
-        <v>0.5</v>
+        <v>0.57</v>
       </c>
       <c r="X30" t="n">
         <v>1.54</v>
@@ -3870,10 +3870,10 @@
         <v>1.34</v>
       </c>
       <c r="V31" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="W31" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="X31" t="n">
         <v>0.85</v>
@@ -3932,13 +3932,13 @@
         </is>
       </c>
       <c r="F32" t="n">
-        <v>1.74</v>
+        <v>2</v>
       </c>
       <c r="G32" t="n">
-        <v>2.85</v>
+        <v>2.8</v>
       </c>
       <c r="H32" t="n">
-        <v>4.25</v>
+        <v>3.8</v>
       </c>
       <c r="I32" t="n">
         <v>1.12</v>
@@ -3947,7 +3947,7 @@
         <v>5.3</v>
       </c>
       <c r="K32" t="n">
-        <v>1.6</v>
+        <v>1.53</v>
       </c>
       <c r="L32" t="n">
         <v>2.25</v>
@@ -4042,13 +4042,13 @@
         </is>
       </c>
       <c r="F33" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
       <c r="G33" t="n">
-        <v>2.98</v>
+        <v>3.3</v>
       </c>
       <c r="H33" t="n">
-        <v>3.86</v>
+        <v>4.4</v>
       </c>
       <c r="I33" t="n">
         <v>1.06</v>
@@ -4063,10 +4063,10 @@
         <v>3.1</v>
       </c>
       <c r="M33" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="N33" t="n">
-        <v>1.79</v>
+        <v>1.73</v>
       </c>
       <c r="O33" t="n">
         <v>1.4</v>
@@ -4090,10 +4090,10 @@
         <v>2</v>
       </c>
       <c r="V33" t="n">
-        <v>2.4</v>
+        <v>2.17</v>
       </c>
       <c r="W33" t="n">
-        <v>0.67</v>
+        <v>0.71</v>
       </c>
       <c r="X33" t="n">
         <v>1.29</v>
@@ -4152,13 +4152,13 @@
         </is>
       </c>
       <c r="F34" t="n">
-        <v>2.04</v>
+        <v>2.25</v>
       </c>
       <c r="G34" t="n">
-        <v>3.57</v>
+        <v>3.25</v>
       </c>
       <c r="H34" t="n">
-        <v>3.38</v>
+        <v>3.25</v>
       </c>
       <c r="I34" t="n">
         <v>1.07</v>
@@ -4173,10 +4173,10 @@
         <v>3</v>
       </c>
       <c r="M34" t="n">
-        <v>2.04</v>
+        <v>2</v>
       </c>
       <c r="N34" t="n">
-        <v>1.78</v>
+        <v>1.81</v>
       </c>
       <c r="O34" t="n">
         <v>1.44</v>
@@ -4262,13 +4262,13 @@
         </is>
       </c>
       <c r="F35" t="n">
-        <v>1.69</v>
+        <v>1.83</v>
       </c>
       <c r="G35" t="n">
-        <v>3.19</v>
+        <v>3.25</v>
       </c>
       <c r="H35" t="n">
-        <v>4.45</v>
+        <v>4.1</v>
       </c>
       <c r="I35" t="n">
         <v>1.08</v>
@@ -4283,10 +4283,10 @@
         <v>3</v>
       </c>
       <c r="M35" t="n">
-        <v>2.35</v>
+        <v>2.27</v>
       </c>
       <c r="N35" t="n">
-        <v>1.53</v>
+        <v>1.56</v>
       </c>
       <c r="O35" t="n">
         <v>1.44</v>
@@ -4352,331 +4352,331 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Spain Segunda División</t>
+          <t>England Championship</t>
         </is>
       </c>
       <c r="B36" s="2" t="n">
         <v>45040.66666666666</v>
       </c>
       <c r="C36" t="n">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>SD Huesca</t>
+          <t>Luton Town</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>CD Tenerife</t>
+          <t>Middlesbrough</t>
         </is>
       </c>
       <c r="F36" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="G36" t="n">
-        <v>2.95</v>
+        <v>3.25</v>
       </c>
       <c r="H36" t="n">
-        <v>3.28</v>
+        <v>3.25</v>
       </c>
       <c r="I36" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="J36" t="n">
-        <v>6.5</v>
+        <v>11</v>
       </c>
       <c r="K36" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="L36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="M36" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="N36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="O36" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P36" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R36" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="S36" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="T36" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U36" t="n">
         <v>1.6</v>
       </c>
-      <c r="L36" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="M36" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="N36" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="O36" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="P36" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Q36" t="n">
-        <v>2</v>
-      </c>
-      <c r="R36" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S36" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="T36" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="U36" t="n">
-        <v>1.41</v>
-      </c>
       <c r="V36" t="n">
-        <v>1.89</v>
+        <v>1.67</v>
       </c>
       <c r="W36" t="n">
-        <v>0.72</v>
+        <v>1.38</v>
       </c>
       <c r="X36" t="n">
-        <v>1.26</v>
+        <v>1.81</v>
       </c>
       <c r="Y36" t="n">
-        <v>1.15</v>
+        <v>1.54</v>
       </c>
       <c r="Z36" t="n">
-        <v>2.41</v>
+        <v>3.35</v>
       </c>
       <c r="AA36" t="n">
-        <v>2.02</v>
+        <v>1.88</v>
       </c>
       <c r="AB36" t="n">
-        <v>8.699999999999999</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="AC36" t="n">
-        <v>2.07</v>
+        <v>2.27</v>
       </c>
       <c r="AD36" t="n">
-        <v>1.25</v>
+        <v>1.16</v>
       </c>
       <c r="AE36" t="n">
-        <v>1.47</v>
+        <v>1.32</v>
       </c>
       <c r="AF36" t="n">
-        <v>1.93</v>
+        <v>1.6</v>
       </c>
       <c r="AG36" t="n">
-        <v>2.4</v>
+        <v>2.01</v>
       </c>
       <c r="AH36" t="n">
-        <v>3.4</v>
+        <v>2.59</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>England Championship</t>
+          <t>Colombia Categoria Primera B</t>
         </is>
       </c>
       <c r="B37" s="2" t="n">
         <v>45040.66666666666</v>
       </c>
       <c r="C37" t="n">
-        <v>44</v>
+        <v>14</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>Luton Town</t>
+          <t>Tigres</t>
         </is>
       </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Middlesbrough</t>
+          <t>Bogotá</t>
         </is>
       </c>
       <c r="F37" t="n">
-        <v>2.08</v>
+        <v>1.95</v>
       </c>
       <c r="G37" t="n">
-        <v>3.26</v>
+        <v>3</v>
       </c>
       <c r="H37" t="n">
-        <v>3.21</v>
+        <v>3.7</v>
       </c>
       <c r="I37" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="J37" t="n">
-        <v>11</v>
+        <v>7.95</v>
       </c>
       <c r="K37" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="L37" t="n">
-        <v>3.4</v>
+        <v>2.6</v>
       </c>
       <c r="M37" t="n">
-        <v>2.02</v>
+        <v>2.2</v>
       </c>
       <c r="N37" t="n">
-        <v>1.79</v>
+        <v>1.57</v>
       </c>
       <c r="O37" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P37" t="n">
-        <v>2.75</v>
+        <v>2.33</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.8</v>
+        <v>2.15</v>
       </c>
       <c r="R37" t="n">
-        <v>1.91</v>
+        <v>1.65</v>
       </c>
       <c r="S37" t="n">
-        <v>1.37</v>
+        <v>1.18</v>
       </c>
       <c r="T37" t="n">
         <v>1.31</v>
       </c>
       <c r="U37" t="n">
-        <v>1.6</v>
+        <v>1.95</v>
       </c>
       <c r="V37" t="n">
-        <v>1.67</v>
+        <v>1.17</v>
       </c>
       <c r="W37" t="n">
-        <v>1.38</v>
+        <v>0.5</v>
       </c>
       <c r="X37" t="n">
-        <v>1.81</v>
+        <v>1.51</v>
       </c>
       <c r="Y37" t="n">
-        <v>1.54</v>
+        <v>0.93</v>
       </c>
       <c r="Z37" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>2.86</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AG37" t="n">
         <v>3.35</v>
       </c>
-      <c r="AA37" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="AB37" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="AC37" t="n">
-        <v>2.27</v>
-      </c>
-      <c r="AD37" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="AE37" t="n">
-        <v>1.32</v>
-      </c>
-      <c r="AF37" t="n">
-        <v>1.6</v>
-      </c>
-      <c r="AG37" t="n">
-        <v>2.01</v>
-      </c>
       <c r="AH37" t="n">
-        <v>2.59</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera B</t>
+          <t>Spain Segunda División</t>
         </is>
       </c>
       <c r="B38" s="2" t="n">
         <v>45040.66666666666</v>
       </c>
       <c r="C38" t="n">
-        <v>14</v>
+        <v>37</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Tigres</t>
+          <t>SD Huesca</t>
         </is>
       </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Bogotá</t>
+          <t>CD Tenerife</t>
         </is>
       </c>
       <c r="F38" t="n">
-        <v>1.76</v>
+        <v>2.71</v>
       </c>
       <c r="G38" t="n">
-        <v>3.38</v>
+        <v>2.8</v>
       </c>
       <c r="H38" t="n">
-        <v>4.72</v>
+        <v>2.82</v>
       </c>
       <c r="I38" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="J38" t="n">
-        <v>7.95</v>
+        <v>6.5</v>
       </c>
       <c r="K38" t="n">
-        <v>1.44</v>
+        <v>1.55</v>
       </c>
       <c r="L38" t="n">
-        <v>2.6</v>
+        <v>2.3</v>
       </c>
       <c r="M38" t="n">
-        <v>2.09</v>
+        <v>2.8</v>
       </c>
       <c r="N38" t="n">
-        <v>1.61</v>
+        <v>1.38</v>
       </c>
       <c r="O38" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="P38" t="n">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.15</v>
+        <v>2</v>
       </c>
       <c r="R38" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="S38" t="n">
-        <v>1.18</v>
+        <v>1.47</v>
       </c>
       <c r="T38" t="n">
-        <v>1.31</v>
+        <v>1.35</v>
       </c>
       <c r="U38" t="n">
-        <v>1.95</v>
+        <v>1.41</v>
       </c>
       <c r="V38" t="n">
-        <v>1.17</v>
+        <v>1.89</v>
       </c>
       <c r="W38" t="n">
-        <v>0.5</v>
+        <v>0.72</v>
       </c>
       <c r="X38" t="n">
-        <v>1.51</v>
+        <v>1.26</v>
       </c>
       <c r="Y38" t="n">
-        <v>0.93</v>
+        <v>1.15</v>
       </c>
       <c r="Z38" t="n">
-        <v>2.44</v>
+        <v>2.41</v>
       </c>
       <c r="AA38" t="n">
-        <v>0</v>
+        <v>2.02</v>
       </c>
       <c r="AB38" t="n">
-        <v>0</v>
+        <v>8.699999999999999</v>
       </c>
       <c r="AC38" t="n">
-        <v>0</v>
+        <v>2.07</v>
       </c>
       <c r="AD38" t="n">
-        <v>0</v>
+        <v>1.25</v>
       </c>
       <c r="AE38" t="n">
-        <v>0</v>
+        <v>1.47</v>
       </c>
       <c r="AF38" t="n">
-        <v>0</v>
+        <v>1.93</v>
       </c>
       <c r="AG38" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AH38" t="n">
-        <v>0</v>
+        <v>3.4</v>
       </c>
     </row>
     <row r="39">
@@ -4702,13 +4702,13 @@
         </is>
       </c>
       <c r="F39" t="n">
-        <v>3.82</v>
+        <v>4.75</v>
       </c>
       <c r="G39" t="n">
-        <v>3.3</v>
+        <v>3.55</v>
       </c>
       <c r="H39" t="n">
-        <v>1.87</v>
+        <v>1.7</v>
       </c>
       <c r="I39" t="n">
         <v>1.01</v>
@@ -4723,10 +4723,10 @@
         <v>4.4</v>
       </c>
       <c r="M39" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="N39" t="n">
-        <v>1.82</v>
+        <v>1.85</v>
       </c>
       <c r="O39" t="n">
         <v>1.29</v>
@@ -4812,13 +4812,13 @@
         </is>
       </c>
       <c r="F40" t="n">
-        <v>3.19</v>
+        <v>3.2</v>
       </c>
       <c r="G40" t="n">
-        <v>2.92</v>
+        <v>2.87</v>
       </c>
       <c r="H40" t="n">
-        <v>2.39</v>
+        <v>2.2</v>
       </c>
       <c r="I40" t="n">
         <v>1.09</v>
@@ -4830,13 +4830,13 @@
         <v>1.5</v>
       </c>
       <c r="L40" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M40" t="n">
-        <v>2.42</v>
+        <v>2.35</v>
       </c>
       <c r="N40" t="n">
-        <v>1.45</v>
+        <v>1.5</v>
       </c>
       <c r="O40" t="n">
         <v>1.56</v>
@@ -4875,22 +4875,22 @@
         <v>2.43</v>
       </c>
       <c r="AA40" t="n">
-        <v>0</v>
+        <v>2.22</v>
       </c>
       <c r="AB40" t="n">
-        <v>0</v>
+        <v>7.9</v>
       </c>
       <c r="AC40" t="n">
-        <v>0</v>
+        <v>1.85</v>
       </c>
       <c r="AD40" t="n">
-        <v>0</v>
+        <v>1.53</v>
       </c>
       <c r="AE40" t="n">
-        <v>0</v>
+        <v>1.91</v>
       </c>
       <c r="AF40" t="n">
-        <v>0</v>
+        <v>2.4</v>
       </c>
       <c r="AG40" t="n">
         <v>0</v>
@@ -4922,13 +4922,13 @@
         </is>
       </c>
       <c r="F41" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="G41" t="n">
-        <v>3.59</v>
+        <v>3.4</v>
       </c>
       <c r="H41" t="n">
-        <v>5.25</v>
+        <v>6.5</v>
       </c>
       <c r="I41" t="n">
         <v>1.05</v>
@@ -4943,10 +4943,10 @@
         <v>2.65</v>
       </c>
       <c r="M41" t="n">
-        <v>2.08</v>
+        <v>2.25</v>
       </c>
       <c r="N41" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="O41" t="n">
         <v>1.42</v>
@@ -4985,25 +4985,25 @@
         <v>2.56</v>
       </c>
       <c r="AA41" t="n">
-        <v>0</v>
+        <v>1.31</v>
       </c>
       <c r="AB41" t="n">
-        <v>0</v>
+        <v>9.6</v>
       </c>
       <c r="AC41" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AD41" t="n">
         <v>0</v>
       </c>
       <c r="AE41" t="n">
-        <v>0</v>
+        <v>1.61</v>
       </c>
       <c r="AF41" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG41" t="n">
-        <v>0</v>
+        <v>2.52</v>
       </c>
       <c r="AH41" t="n">
         <v>0</v>
@@ -5142,13 +5142,13 @@
         </is>
       </c>
       <c r="F43" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="G43" t="n">
-        <v>3.57</v>
+        <v>3.4</v>
       </c>
       <c r="H43" t="n">
-        <v>1.71</v>
+        <v>1.61</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -5163,10 +5163,10 @@
         <v>0</v>
       </c>
       <c r="M43" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="N43" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="O43" t="n">
         <v>0</v>
@@ -5252,13 +5252,13 @@
         </is>
       </c>
       <c r="F44" t="n">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="G44" t="n">
-        <v>2.92</v>
+        <v>2.8</v>
       </c>
       <c r="H44" t="n">
-        <v>2.43</v>
+        <v>2.75</v>
       </c>
       <c r="I44" t="n">
         <v>1.09</v>
@@ -5267,10 +5267,10 @@
         <v>7.65</v>
       </c>
       <c r="K44" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="L44" t="n">
-        <v>2.45</v>
+        <v>2.4</v>
       </c>
       <c r="M44" t="n">
         <v>2.22</v>
@@ -5342,770 +5342,660 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Argentina Primera División</t>
+          <t>Peru Primera División</t>
         </is>
       </c>
       <c r="B45" s="2" t="n">
-        <v>45040.8125</v>
+        <v>45040.83333333334</v>
       </c>
       <c r="C45" t="n">
         <v>13</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>Tigre</t>
+          <t>César Vallejo</t>
         </is>
       </c>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Huracán</t>
+          <t>Deportivo Municipal</t>
         </is>
       </c>
       <c r="F45" t="n">
-        <v>2.44</v>
+        <v>1.6</v>
       </c>
       <c r="G45" t="n">
-        <v>3.07</v>
+        <v>3.4</v>
       </c>
       <c r="H45" t="n">
-        <v>3.04</v>
+        <v>5.75</v>
       </c>
       <c r="I45" t="n">
-        <v>1.08</v>
+        <v>1.06</v>
       </c>
       <c r="J45" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="L45" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="N45" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O45" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P45" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="Q45" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R45" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S45" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U45" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X45" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AB45" t="n">
         <v>8.5</v>
       </c>
-      <c r="K45" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="L45" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="M45" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N45" t="n">
-        <v>1.58</v>
-      </c>
-      <c r="O45" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P45" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q45" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R45" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S45" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="T45" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U45" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="V45" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="W45" t="n">
-        <v>0.83</v>
-      </c>
-      <c r="X45" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="Y45" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="Z45" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="AA45" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="AB45" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AC45" t="n">
-        <v>2.1</v>
+        <v>3</v>
       </c>
       <c r="AD45" t="n">
-        <v>1.33</v>
+        <v>1.21</v>
       </c>
       <c r="AE45" t="n">
-        <v>1.62</v>
+        <v>1.42</v>
       </c>
       <c r="AF45" t="n">
-        <v>2.08</v>
+        <v>1.75</v>
       </c>
       <c r="AG45" t="n">
-        <v>2.76</v>
+        <v>2.19</v>
       </c>
       <c r="AH45" t="n">
-        <v>3.74</v>
+        <v>2.91</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Peru Primera División</t>
+          <t>Colombia Categoria Primera B</t>
         </is>
       </c>
       <c r="B46" s="2" t="n">
         <v>45040.83333333334</v>
       </c>
       <c r="C46" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>César Vallejo</t>
+          <t>Real Cartagena</t>
         </is>
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Deportivo Municipal</t>
+          <t>Cortuluá</t>
         </is>
       </c>
       <c r="F46" t="n">
-        <v>1.66</v>
+        <v>1.92</v>
       </c>
       <c r="G46" t="n">
-        <v>3.35</v>
+        <v>3.3</v>
       </c>
       <c r="H46" t="n">
-        <v>3.85</v>
+        <v>3.65</v>
       </c>
       <c r="I46" t="n">
-        <v>1.06</v>
+        <v>1.01</v>
       </c>
       <c r="J46" t="n">
-        <v>7.5</v>
+        <v>8.4</v>
       </c>
       <c r="K46" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="L46" t="n">
-        <v>2.87</v>
+        <v>3.05</v>
       </c>
       <c r="M46" t="n">
-        <v>2.2</v>
+        <v>1.95</v>
       </c>
       <c r="N46" t="n">
-        <v>1.64</v>
+        <v>1.7</v>
       </c>
       <c r="O46" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P46" t="n">
-        <v>2.55</v>
+        <v>2.85</v>
       </c>
       <c r="Q46" t="n">
-        <v>2.1</v>
+        <v>1.81</v>
       </c>
       <c r="R46" t="n">
-        <v>1.7</v>
+        <v>1.85</v>
       </c>
       <c r="S46" t="n">
-        <v>1.12</v>
+        <v>1.25</v>
       </c>
       <c r="T46" t="n">
-        <v>1.28</v>
+        <v>1.33</v>
       </c>
       <c r="U46" t="n">
-        <v>2.25</v>
+        <v>1.74</v>
       </c>
       <c r="V46" t="n">
-        <v>2.17</v>
+        <v>1.5</v>
       </c>
       <c r="W46" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="X46" t="n">
-        <v>1.91</v>
+        <v>1.39</v>
       </c>
       <c r="Y46" t="n">
-        <v>0.9399999999999999</v>
+        <v>1.72</v>
       </c>
       <c r="Z46" t="n">
-        <v>2.85</v>
+        <v>3.11</v>
       </c>
       <c r="AA46" t="n">
-        <v>1.5</v>
+        <v>1.68</v>
       </c>
       <c r="AB46" t="n">
-        <v>8.5</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="AC46" t="n">
-        <v>3</v>
+        <v>2.49</v>
       </c>
       <c r="AD46" t="n">
-        <v>1.21</v>
+        <v>1.38</v>
       </c>
       <c r="AE46" t="n">
-        <v>1.42</v>
+        <v>1.76</v>
       </c>
       <c r="AF46" t="n">
-        <v>1.75</v>
+        <v>2.21</v>
       </c>
       <c r="AG46" t="n">
-        <v>2.19</v>
+        <v>0</v>
       </c>
       <c r="AH46" t="n">
-        <v>2.91</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Colombia Categoria Primera B</t>
+          <t>Uruguay Primera División</t>
         </is>
       </c>
       <c r="B47" s="2" t="n">
         <v>45040.83333333334</v>
       </c>
       <c r="C47" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t>Real Cartagena</t>
+          <t>Wanderers</t>
         </is>
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Cortuluá</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="F47" t="n">
-        <v>2.41</v>
+        <v>4.2</v>
       </c>
       <c r="G47" t="n">
-        <v>3.08</v>
+        <v>3.2</v>
       </c>
       <c r="H47" t="n">
-        <v>2.98</v>
+        <v>1.8</v>
       </c>
       <c r="I47" t="n">
-        <v>1.01</v>
+        <v>1.08</v>
       </c>
       <c r="J47" t="n">
-        <v>8.4</v>
+        <v>7</v>
       </c>
       <c r="K47" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="L47" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="M47" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="N47" t="n">
-        <v>1.7</v>
+        <v>1.61</v>
       </c>
       <c r="O47" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P47" t="n">
-        <v>2.85</v>
+        <v>2.63</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.81</v>
+        <v>2</v>
       </c>
       <c r="R47" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="S47" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U47" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="V47" t="n">
+        <v>1</v>
+      </c>
+      <c r="W47" t="n">
+        <v>0.6</v>
+      </c>
+      <c r="X47" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="Y47" t="n">
         <v>1.25</v>
       </c>
-      <c r="T47" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U47" t="n">
-        <v>1.74</v>
-      </c>
-      <c r="V47" t="n">
+      <c r="Z47" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AC47" t="n">
         <v>1.5</v>
       </c>
-      <c r="W47" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X47" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="Y47" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="Z47" t="n">
-        <v>3.11</v>
-      </c>
-      <c r="AA47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB47" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC47" t="n">
-        <v>0</v>
-      </c>
       <c r="AD47" t="n">
-        <v>0</v>
+        <v>1.28</v>
       </c>
       <c r="AE47" t="n">
-        <v>0</v>
+        <v>1.51</v>
       </c>
       <c r="AF47" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AG47" t="n">
-        <v>0</v>
+        <v>2.45</v>
       </c>
       <c r="AH47" t="n">
-        <v>0</v>
+        <v>3.34</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Uruguay Primera División</t>
+          <t>Brazil Serie A</t>
         </is>
       </c>
       <c r="B48" s="2" t="n">
         <v>45040.83333333334</v>
       </c>
       <c r="C48" t="n">
-        <v>12</v>
+        <v>2</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>Wanderers</t>
+          <t>Bahia</t>
         </is>
       </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Botafogo</t>
         </is>
       </c>
       <c r="F48" t="n">
-        <v>3.78</v>
+        <v>2.4</v>
       </c>
       <c r="G48" t="n">
-        <v>2.98</v>
+        <v>3</v>
       </c>
       <c r="H48" t="n">
-        <v>1.7</v>
+        <v>3</v>
       </c>
       <c r="I48" t="n">
         <v>1.08</v>
       </c>
       <c r="J48" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="K48" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="L48" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="M48" t="n">
-        <v>2.05</v>
+        <v>2.2</v>
       </c>
       <c r="N48" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P48" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="Q48" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R48" t="n">
         <v>1.8</v>
       </c>
-      <c r="O48" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P48" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q48" t="n">
-        <v>2</v>
-      </c>
-      <c r="R48" t="n">
-        <v>1.73</v>
-      </c>
       <c r="S48" t="n">
-        <v>1.88</v>
+        <v>1.31</v>
       </c>
       <c r="T48" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U48" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="V48" t="n">
+        <v>0</v>
+      </c>
+      <c r="W48" t="n">
+        <v>0</v>
+      </c>
+      <c r="X48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>0</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>0</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AD48" t="n">
         <v>1.27</v>
-      </c>
-      <c r="U48" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="V48" t="n">
-        <v>1</v>
-      </c>
-      <c r="W48" t="n">
-        <v>0.6</v>
-      </c>
-      <c r="X48" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="Y48" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="Z48" t="n">
-        <v>2.49</v>
-      </c>
-      <c r="AA48" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="AB48" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AC48" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="AD48" t="n">
-        <v>1.28</v>
       </c>
       <c r="AE48" t="n">
         <v>1.51</v>
       </c>
       <c r="AF48" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AG48" t="n">
-        <v>2.45</v>
+        <v>2.44</v>
       </c>
       <c r="AH48" t="n">
-        <v>3.34</v>
+        <v>3.28</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Brazil Serie A</t>
+          <t>Argentina Prim B Nacional</t>
         </is>
       </c>
       <c r="B49" s="2" t="n">
-        <v>45040.83333333334</v>
+        <v>45040.86111111111</v>
       </c>
       <c r="C49" t="n">
+        <v>13</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Temperley</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Flandria</t>
+        </is>
+      </c>
+      <c r="F49" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="G49" t="n">
+        <v>3</v>
+      </c>
+      <c r="H49" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="I49" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="L49" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="M49" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="N49" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="O49" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="P49" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Q49" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R49" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="S49" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U49" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="V49" t="n">
+        <v>3</v>
+      </c>
+      <c r="W49" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="X49" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AF49" t="n">
         <v>2</v>
       </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>Bahia</t>
-        </is>
-      </c>
-      <c r="E49" t="inlineStr">
-        <is>
-          <t>Botafogo</t>
-        </is>
-      </c>
-      <c r="F49" t="n">
-        <v>2.33</v>
-      </c>
-      <c r="G49" t="n">
-        <v>3.08</v>
-      </c>
-      <c r="H49" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>0</v>
-      </c>
-      <c r="K49" t="n">
-        <v>0</v>
-      </c>
-      <c r="L49" t="n">
-        <v>0</v>
-      </c>
-      <c r="M49" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="N49" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="O49" t="n">
-        <v>0</v>
-      </c>
-      <c r="P49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q49" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R49" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S49" t="n">
-        <v>0</v>
-      </c>
-      <c r="T49" t="n">
-        <v>0</v>
-      </c>
-      <c r="U49" t="n">
-        <v>0</v>
-      </c>
-      <c r="V49" t="n">
-        <v>0</v>
-      </c>
-      <c r="W49" t="n">
-        <v>0</v>
-      </c>
-      <c r="X49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Y49" t="n">
-        <v>0</v>
-      </c>
-      <c r="Z49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AA49" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>2.66</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF49" t="n">
-        <v>2.25</v>
-      </c>
       <c r="AG49" t="n">
-        <v>0</v>
+        <v>2.53</v>
       </c>
       <c r="AH49" t="n">
-        <v>0</v>
+        <v>3.48</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Argentina Prim B Nacional</t>
+          <t>Ecuador Primera Categoría Serie A</t>
         </is>
       </c>
       <c r="B50" s="2" t="n">
-        <v>45040.86111111111</v>
+        <v>45040.875</v>
       </c>
       <c r="C50" t="n">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>Temperley</t>
+          <t>SD Aucas</t>
         </is>
       </c>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Flandria</t>
+          <t>Cumbayá</t>
         </is>
       </c>
       <c r="F50" t="n">
-        <v>1.84</v>
+        <v>1.44</v>
       </c>
       <c r="G50" t="n">
-        <v>2.85</v>
+        <v>3.9</v>
       </c>
       <c r="H50" t="n">
-        <v>3.78</v>
+        <v>6.5</v>
       </c>
       <c r="I50" t="n">
-        <v>1.1</v>
+        <v>1.03</v>
       </c>
       <c r="J50" t="n">
-        <v>6.9</v>
+        <v>14</v>
       </c>
       <c r="K50" t="n">
-        <v>1.54</v>
+        <v>1.29</v>
       </c>
       <c r="L50" t="n">
-        <v>2.33</v>
+        <v>3.4</v>
       </c>
       <c r="M50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="O50" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P50" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q50" t="n">
+        <v>2</v>
+      </c>
+      <c r="R50" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S50" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2</v>
+      </c>
+      <c r="W50" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="X50" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>0.88</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>4.15</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AG50" t="n">
         <v>2.55</v>
       </c>
-      <c r="N50" t="n">
-        <v>1.39</v>
-      </c>
-      <c r="O50" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P50" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="Q50" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R50" t="n">
-        <v>1.55</v>
-      </c>
-      <c r="S50" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="T50" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U50" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="V50" t="n">
-        <v>3</v>
-      </c>
-      <c r="W50" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="X50" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Y50" t="n">
-        <v>0.98</v>
-      </c>
-      <c r="Z50" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AA50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AE50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AF50" t="n">
-        <v>0</v>
-      </c>
-      <c r="AG50" t="n">
-        <v>0</v>
-      </c>
       <c r="AH50" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Ecuador Primera Categoría Serie A</t>
-        </is>
-      </c>
-      <c r="B51" s="2" t="n">
-        <v>45040.875</v>
-      </c>
-      <c r="C51" t="n">
-        <v>7</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>SD Aucas</t>
-        </is>
-      </c>
-      <c r="E51" t="inlineStr">
-        <is>
-          <t>Cumbayá</t>
-        </is>
-      </c>
-      <c r="F51" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="G51" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="H51" t="n">
-        <v>4.77</v>
-      </c>
-      <c r="I51" t="n">
-        <v>1.03</v>
-      </c>
-      <c r="J51" t="n">
-        <v>14</v>
-      </c>
-      <c r="K51" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="L51" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="M51" t="n">
-        <v>1.86</v>
-      </c>
-      <c r="N51" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="O51" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P51" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q51" t="n">
-        <v>2</v>
-      </c>
-      <c r="R51" t="n">
-        <v>1.73</v>
-      </c>
-      <c r="S51" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="T51" t="n">
-        <v>1.18</v>
-      </c>
-      <c r="U51" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="V51" t="n">
-        <v>2</v>
-      </c>
-      <c r="W51" t="n">
-        <v>0.33</v>
-      </c>
-      <c r="X51" t="n">
-        <v>1.56</v>
-      </c>
-      <c r="Y51" t="n">
-        <v>0.88</v>
-      </c>
-      <c r="Z51" t="n">
-        <v>2.44</v>
-      </c>
-      <c r="AA51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AB51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AC51" t="n">
-        <v>0</v>
-      </c>
-      <c r="AD51" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="AE51" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="AF51" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AG51" t="n">
-        <v>2.55</v>
-      </c>
-      <c r="AH51" t="n">
         <v>3.5</v>
       </c>
     </row>
